--- a/data/trans_orig/P12_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAA41239-ED82-4333-B19B-B37975D8B191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA88DA63-76ED-462D-A8AA-7A4C1520118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32A5122D-E288-4D9D-936F-576E0BE69E33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95619428-D30E-41C9-8790-65ED21A0626E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,95%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1210 +140,1216 @@
     <t>16,44%</t>
   </si>
   <si>
-    <t>13,73%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>84,3%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>77,54%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>75,66%</t>
   </si>
   <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C76E4-D8AD-478D-9F3B-191D94741465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B5C790-4B05-476B-8282-C86B764CD530}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2532,10 +2538,10 @@
         <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>782094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
@@ -2568,10 +2574,10 @@
         <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -2580,13 +2586,13 @@
         <v>1580980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2660,13 @@
         <v>554668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>738</v>
@@ -2669,13 +2675,13 @@
         <v>756042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1287</v>
@@ -2684,13 +2690,13 @@
         <v>1310710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>2721876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2559</v>
@@ -2720,28 +2726,28 @@
         <v>2623156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>5224</v>
       </c>
       <c r="N20" s="7">
-        <v>5345030</v>
+        <v>5345031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2789,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119C1776-5F6F-4936-A783-AB04AD92B8D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93C90A-7C79-4108-8566-6FB4471E8D87}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2948,13 @@
         <v>21564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2957,13 +2963,13 @@
         <v>33501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2972,13 +2978,13 @@
         <v>55065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>93236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -3008,13 +3014,13 @@
         <v>78404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -3023,13 +3029,13 @@
         <v>171640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>66404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
@@ -3112,13 +3118,13 @@
         <v>147284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
@@ -3127,13 +3133,13 @@
         <v>213689</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>520268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -3163,13 +3169,13 @@
         <v>436910</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -3178,13 +3184,13 @@
         <v>957178</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3258,13 @@
         <v>165250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>220</v>
@@ -3267,13 +3273,13 @@
         <v>241307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>366</v>
@@ -3282,13 +3288,13 @@
         <v>406556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3309,13 @@
         <v>851566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>718</v>
@@ -3318,13 +3324,13 @@
         <v>788773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -3333,13 +3339,13 @@
         <v>1640340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3413,13 @@
         <v>113393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -3422,13 +3428,13 @@
         <v>196944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3437,13 +3443,13 @@
         <v>310336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3464,13 @@
         <v>644230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3473,13 +3479,13 @@
         <v>575285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1102</v>
@@ -3488,13 +3494,13 @@
         <v>1219516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3568,13 @@
         <v>173606</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>284</v>
@@ -3577,13 +3583,13 @@
         <v>300470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>447</v>
@@ -3592,13 +3598,13 @@
         <v>474076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3619,13 @@
         <v>774133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>719</v>
@@ -3628,13 +3634,13 @@
         <v>751431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1466</v>
@@ -3643,13 +3649,13 @@
         <v>1525564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3723,13 @@
         <v>540216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>856</v>
@@ -3732,13 +3738,13 @@
         <v>919506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1358</v>
@@ -3747,13 +3753,13 @@
         <v>1459722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3774,13 @@
         <v>2883434</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2435</v>
@@ -3783,13 +3789,13 @@
         <v>2630804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>5139</v>
@@ -3798,13 +3804,13 @@
         <v>5514238</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4E8A73-5954-43CA-A0BF-DDD2186058F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C198A588-B5C1-4911-8479-38C2852CB7DD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4011,13 @@
         <v>18357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4020,13 +4026,13 @@
         <v>23009</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4035,13 +4041,13 @@
         <v>41365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>97043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -4071,13 +4077,13 @@
         <v>90351</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4086,13 +4092,13 @@
         <v>187395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>76302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -4175,13 +4181,13 @@
         <v>96793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -4190,13 +4196,13 @@
         <v>173095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>481952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -4226,13 +4232,13 @@
         <v>460079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>914</v>
@@ -4241,13 +4247,13 @@
         <v>942031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4321,13 @@
         <v>106766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -4330,13 +4336,13 @@
         <v>159592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
@@ -4345,13 +4351,13 @@
         <v>266358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4372,13 @@
         <v>915665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -4381,13 +4387,13 @@
         <v>883321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1682</v>
@@ -4396,13 +4402,13 @@
         <v>1798986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4476,13 @@
         <v>79370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -4485,13 +4491,13 @@
         <v>129882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>192</v>
@@ -4500,13 +4506,13 @@
         <v>209252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>680182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>615</v>
@@ -4536,13 +4542,13 @@
         <v>652689</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1238</v>
@@ -4551,13 +4557,13 @@
         <v>1332872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4631,13 @@
         <v>114210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -4640,13 +4646,13 @@
         <v>179279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -4655,13 +4661,13 @@
         <v>293489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4682,13 @@
         <v>822331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>799</v>
@@ -4691,13 +4697,13 @@
         <v>863430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>1615</v>
@@ -4706,13 +4712,13 @@
         <v>1685761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4786,13 @@
         <v>395005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>545</v>
@@ -4795,13 +4801,13 @@
         <v>588555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>924</v>
@@ -4810,13 +4816,13 @@
         <v>983560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,28 +4837,28 @@
         <v>2997174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2787</v>
       </c>
       <c r="I20" s="7">
-        <v>2949871</v>
+        <v>2949870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5637</v>
@@ -4861,13 +4867,13 @@
         <v>5947044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4900,7 @@
         <v>3332</v>
       </c>
       <c r="I21" s="7">
-        <v>3538426</v>
+        <v>3538425</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4923,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774999B4-2D27-4738-8193-F2F8AFA99928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55901968-03A7-475C-9D18-28FCC5645307}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5074,13 @@
         <v>22594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -5083,13 +5089,13 @@
         <v>24586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5098,13 +5104,13 @@
         <v>47181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>79388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5134,13 +5140,13 @@
         <v>106147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -5149,13 +5155,13 @@
         <v>185534</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>79784</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>213</v>
@@ -5238,13 +5244,13 @@
         <v>114167</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -5253,13 +5259,13 @@
         <v>193951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>469202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>783</v>
@@ -5289,13 +5295,13 @@
         <v>478795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1292</v>
@@ -5304,13 +5310,13 @@
         <v>947997</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5384,13 @@
         <v>105204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
@@ -5393,13 +5399,13 @@
         <v>187691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>440</v>
@@ -5408,13 +5414,13 @@
         <v>292894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5435,13 @@
         <v>934044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>1201</v>
@@ -5444,13 +5450,13 @@
         <v>871285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>2039</v>
@@ -5459,13 +5465,13 @@
         <v>1805330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5539,13 @@
         <v>107623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -5548,13 +5554,13 @@
         <v>252423</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -5563,13 +5569,13 @@
         <v>360046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5590,13 @@
         <v>621149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>850</v>
@@ -5599,13 +5605,13 @@
         <v>621948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>1428</v>
@@ -5614,13 +5620,13 @@
         <v>1243096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5694,13 @@
         <v>145412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>366</v>
@@ -5703,13 +5709,13 @@
         <v>251707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>525</v>
@@ -5718,13 +5724,13 @@
         <v>397119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5745,13 @@
         <v>819991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>1195</v>
@@ -5754,13 +5760,13 @@
         <v>898113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>2042</v>
@@ -5769,13 +5775,13 @@
         <v>1718104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,28 +5849,28 @@
         <v>460618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>1148</v>
       </c>
       <c r="I19" s="7">
-        <v>830573</v>
+        <v>830574</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>1662</v>
@@ -5873,13 +5879,13 @@
         <v>1291191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5900,13 @@
         <v>2923773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>4214</v>
@@ -5909,13 +5915,13 @@
         <v>2976288</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>7075</v>
@@ -5924,13 +5930,13 @@
         <v>5900061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5963,7 @@
         <v>5362</v>
       </c>
       <c r="I21" s="7">
-        <v>3806861</v>
+        <v>3806862</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA88DA63-76ED-462D-A8AA-7A4C1520118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6486F135-7DE6-4BDA-8E81-5B564AF6FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95619428-D30E-41C9-8790-65ED21A0626E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{613CC5B5-139E-45EC-8635-B9AC4FED8516}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,598 +107,586 @@
     <t>89,95%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,42%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>25,7%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>74,3%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>24,39%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>27,46%</t>
@@ -707,19 +695,19 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>74,1%</t>
@@ -728,357 +716,387 @@
     <t>72,54%</t>
   </si>
   <si>
-    <t>75,61%</t>
+    <t>75,57%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2016 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>91,3%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,47%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>14,22%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>85,78%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,16%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
     <t>79,73%</t>
   </si>
   <si>
@@ -1310,9 +1328,6 @@
     <t>21,82%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
     <t>30,34%</t>
   </si>
   <si>
@@ -1338,9 +1353,6 @@
   </si>
   <si>
     <t>69,66%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
   </si>
   <si>
     <t>82,04%</t>
@@ -1761,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B5C790-4B05-476B-8282-C86B764CD530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C312D15-621F-43FD-81D6-8EC084A23D59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2678,10 +2690,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1287</v>
@@ -2690,13 +2702,13 @@
         <v>1310710</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,16 +2720,16 @@
         <v>2665</v>
       </c>
       <c r="D20" s="7">
-        <v>2721876</v>
+        <v>2721875</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2559</v>
@@ -2726,13 +2738,13 @@
         <v>2623156</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>5224</v>
@@ -2741,13 +2753,13 @@
         <v>5345031</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2771,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2803,7 +2815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93C90A-7C79-4108-8566-6FB4471E8D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999533AC-7B6B-412A-88F6-C27E7187219B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2960,13 @@
         <v>21564</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -2963,13 +2975,13 @@
         <v>33501</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2978,13 +2990,13 @@
         <v>55065</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3011,13 @@
         <v>93236</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -3014,13 +3026,13 @@
         <v>78404</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>167</v>
@@ -3029,13 +3041,13 @@
         <v>171640</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3115,13 @@
         <v>66404</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
@@ -3118,13 +3130,13 @@
         <v>147284</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
@@ -3133,13 +3145,13 @@
         <v>213689</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3166,13 @@
         <v>520268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -3169,13 +3181,13 @@
         <v>436910</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -3184,13 +3196,13 @@
         <v>957178</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3270,13 @@
         <v>165250</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>220</v>
@@ -3273,13 +3285,13 @@
         <v>241307</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>366</v>
@@ -3288,13 +3300,13 @@
         <v>406556</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3321,13 @@
         <v>851566</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>718</v>
@@ -3324,13 +3336,13 @@
         <v>788773</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -3339,13 +3351,13 @@
         <v>1640340</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3425,13 @@
         <v>113393</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -3428,13 +3440,13 @@
         <v>196944</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3443,13 +3455,13 @@
         <v>310336</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3476,13 @@
         <v>644230</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3479,13 +3491,13 @@
         <v>575285</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1102</v>
@@ -3494,13 +3506,13 @@
         <v>1219516</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3580,13 @@
         <v>173606</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>284</v>
@@ -3583,13 +3595,13 @@
         <v>300470</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>447</v>
@@ -3598,13 +3610,13 @@
         <v>474076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3631,13 @@
         <v>774133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>719</v>
@@ -3634,13 +3646,13 @@
         <v>751431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1466</v>
@@ -3649,13 +3661,13 @@
         <v>1525564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3735,13 @@
         <v>540216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>856</v>
@@ -3738,13 +3750,13 @@
         <v>919506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1358</v>
@@ -3753,13 +3765,13 @@
         <v>1459722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3786,13 @@
         <v>2883434</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2435</v>
@@ -3789,13 +3801,13 @@
         <v>2630804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>5139</v>
@@ -3804,13 +3816,13 @@
         <v>5514238</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C198A588-B5C1-4911-8479-38C2852CB7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAB60D-8A93-41D5-9D3B-CE7F0D47E015}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4023,13 @@
         <v>18357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4026,13 +4038,13 @@
         <v>23009</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4041,13 +4053,13 @@
         <v>41365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4074,13 @@
         <v>97043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -4077,13 +4089,13 @@
         <v>90351</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -4092,13 +4104,13 @@
         <v>187395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4178,13 @@
         <v>76302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -4181,13 +4193,13 @@
         <v>96793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -4196,13 +4208,13 @@
         <v>173095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4229,13 @@
         <v>481952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -4232,13 +4244,13 @@
         <v>460079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>914</v>
@@ -4247,13 +4259,13 @@
         <v>942031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4333,13 @@
         <v>106766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -4336,13 +4348,13 @@
         <v>159592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
@@ -4351,13 +4363,13 @@
         <v>266358</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4384,13 @@
         <v>915665</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -4387,13 +4399,13 @@
         <v>883321</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1682</v>
@@ -4497,7 +4509,7 @@
         <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>192</v>
@@ -4506,13 +4518,13 @@
         <v>209252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4539,13 @@
         <v>680182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>615</v>
@@ -4542,13 +4554,13 @@
         <v>652689</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>1238</v>
@@ -4557,13 +4569,13 @@
         <v>1332872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4643,13 @@
         <v>114210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -4646,13 +4658,13 @@
         <v>179279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -4661,13 +4673,13 @@
         <v>293489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4694,13 @@
         <v>822331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>799</v>
@@ -4697,13 +4709,13 @@
         <v>863430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1615</v>
@@ -4712,13 +4724,13 @@
         <v>1685761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4798,13 @@
         <v>395005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>545</v>
@@ -4801,13 +4813,13 @@
         <v>588555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>924</v>
@@ -4816,13 +4828,13 @@
         <v>983560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,28 +4849,28 @@
         <v>2997174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>2787</v>
       </c>
       <c r="I20" s="7">
-        <v>2949870</v>
+        <v>2949871</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>5637</v>
@@ -4867,13 +4879,13 @@
         <v>5947044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4912,7 @@
         <v>3332</v>
       </c>
       <c r="I21" s="7">
-        <v>3538425</v>
+        <v>3538426</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4929,7 +4941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55901968-03A7-475C-9D18-28FCC5645307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E0DCF3-B3AE-4B69-92B6-9740CD9E2450}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5086,13 @@
         <v>22594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -5089,13 +5101,13 @@
         <v>24586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5104,13 +5116,13 @@
         <v>47181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5137,13 @@
         <v>79388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5140,13 +5152,13 @@
         <v>106147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -5155,13 +5167,13 @@
         <v>185534</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5241,13 @@
         <v>79784</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>213</v>
@@ -5244,13 +5256,13 @@
         <v>114167</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -5259,13 +5271,13 @@
         <v>193951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5292,13 @@
         <v>469202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>783</v>
@@ -5295,13 +5307,13 @@
         <v>478795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>1292</v>
@@ -5310,13 +5322,13 @@
         <v>947997</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5396,13 @@
         <v>105204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
@@ -5399,13 +5411,13 @@
         <v>187691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>440</v>
@@ -5414,13 +5426,13 @@
         <v>292894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5447,13 @@
         <v>934044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>1201</v>
@@ -5450,13 +5462,13 @@
         <v>871285</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>2039</v>
@@ -5465,13 +5477,13 @@
         <v>1805330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5551,13 @@
         <v>107623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -5554,13 +5566,13 @@
         <v>252423</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -5569,13 +5581,13 @@
         <v>360046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5602,13 @@
         <v>621149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>850</v>
@@ -5605,13 +5617,13 @@
         <v>621948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>1428</v>
@@ -5620,13 +5632,13 @@
         <v>1243096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5706,13 @@
         <v>145412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>366</v>
@@ -5709,13 +5721,13 @@
         <v>251707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>525</v>
@@ -5724,13 +5736,13 @@
         <v>397119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5757,13 @@
         <v>819991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>1195</v>
@@ -5760,13 +5772,13 @@
         <v>898113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>2042</v>
@@ -5775,13 +5787,13 @@
         <v>1718104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5861,13 @@
         <v>460618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>1148</v>
@@ -5864,13 +5876,13 @@
         <v>830574</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>1662</v>
@@ -5879,13 +5891,13 @@
         <v>1291191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5912,13 @@
         <v>2923773</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>4214</v>
@@ -5915,13 +5927,13 @@
         <v>2976288</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>7075</v>
@@ -5930,13 +5942,13 @@
         <v>5900061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
